--- a/BE_nais_einheiten_unique_bh_20241128_bh_mf_bh.xlsx
+++ b/BE_nais_einheiten_unique_bh_20241128_bh_mf_bh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CCW24sensi\BE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02305752-5C05-48F2-943D-A934183D7885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DE47FA-0BBF-4EFF-9AC5-3F7D0E1CCD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BE" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BE!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="226">
   <si>
     <t>BE</t>
   </si>
@@ -653,9 +653,6 @@
     <t>om hm sa</t>
   </si>
   <si>
-    <t>tahs</t>
-  </si>
-  <si>
     <t>60*Ta</t>
   </si>
   <si>
@@ -683,9 +680,6 @@
     <t>sa osa</t>
   </si>
   <si>
-    <t>Uebergang</t>
-  </si>
-  <si>
     <t>Bemerkungen bh</t>
   </si>
   <si>
@@ -711,6 +705,15 @@
   </si>
   <si>
     <t>7g wird mit 7g evt. in NaiS aufgenommen</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
+    <t>hsue</t>
   </si>
 </sst>
 </file>
@@ -1124,19 +1127,22 @@
   <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>223</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,19 +1153,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1176,13 +1182,13 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" t="s">
         <v>217</v>
       </c>
-      <c r="H2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1199,10 +1205,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -1253,7 +1259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>11</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>13</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>14</v>
       </c>
@@ -1304,7 +1310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -1321,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>18</v>
       </c>
@@ -1338,7 +1344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>19</v>
       </c>
@@ -1355,10 +1361,10 @@
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -1375,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>23</v>
       </c>
@@ -1395,7 +1401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>24</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>26</v>
       </c>
@@ -1432,7 +1438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>29</v>
       </c>
@@ -1449,7 +1455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>31</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>32</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>47</v>
       </c>
@@ -1554,7 +1560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>49</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>54</v>
       </c>
@@ -1605,7 +1611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>56</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>57</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>59</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>60</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>69</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>73</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>74</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>75</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>76</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>78</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>81</v>
       </c>
@@ -1795,7 +1801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>85</v>
       </c>
@@ -1812,7 +1818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>87</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>88</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>89</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>92</v>
       </c>
@@ -1880,7 +1886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>96</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>97</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>98</v>
       </c>
@@ -1931,7 +1937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>103</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>111</v>
       </c>
@@ -1968,7 +1974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>114</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>115</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>117</v>
       </c>
@@ -2019,7 +2025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>121</v>
       </c>
@@ -2036,7 +2042,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>122</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>126</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>129</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>133</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>135</v>
       </c>
@@ -2127,7 +2133,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>147</v>
       </c>
@@ -2144,7 +2150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>149</v>
       </c>
@@ -2161,7 +2167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>150</v>
       </c>
@@ -2178,7 +2184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>151</v>
       </c>
@@ -2195,7 +2201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>158</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>164</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>166</v>
       </c>
@@ -2246,7 +2252,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>167</v>
       </c>
@@ -2263,7 +2269,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>170</v>
       </c>
@@ -2280,7 +2286,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>171</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>178</v>
       </c>
@@ -2314,7 +2320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>179</v>
       </c>
@@ -2331,7 +2337,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>180</v>
       </c>
@@ -2351,7 +2357,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>184</v>
       </c>
@@ -2368,7 +2374,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>185</v>
       </c>
@@ -2385,7 +2391,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>186</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>188</v>
       </c>
@@ -2419,7 +2425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>189</v>
       </c>
@@ -2436,7 +2442,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>190</v>
       </c>
@@ -2453,7 +2459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>191</v>
       </c>
@@ -2473,10 +2479,10 @@
         <v>27</v>
       </c>
       <c r="H76" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>192</v>
       </c>
@@ -2490,10 +2496,10 @@
         <v>115</v>
       </c>
       <c r="E77" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>193</v>
       </c>
@@ -2507,10 +2513,10 @@
         <v>116</v>
       </c>
       <c r="E78" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>198</v>
       </c>
@@ -2527,7 +2533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>204</v>
       </c>
@@ -2544,7 +2550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>217</v>
       </c>
@@ -2558,10 +2564,10 @@
         <v>119</v>
       </c>
       <c r="E81" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>218</v>
       </c>
@@ -2575,10 +2581,10 @@
         <v>120</v>
       </c>
       <c r="E82" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>219</v>
       </c>
@@ -2592,10 +2598,10 @@
         <v>121</v>
       </c>
       <c r="E83" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>220</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>221</v>
       </c>
@@ -2626,10 +2632,10 @@
         <v>125</v>
       </c>
       <c r="E85" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>222</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>224</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>225</v>
       </c>
@@ -2680,7 +2686,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>230</v>
       </c>
@@ -2697,7 +2703,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>231</v>
       </c>
@@ -2714,7 +2720,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>240</v>
       </c>
@@ -2731,7 +2737,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>243</v>
       </c>
@@ -2748,7 +2754,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>248</v>
       </c>
@@ -2765,7 +2771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>249</v>
       </c>
@@ -2782,7 +2788,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>250</v>
       </c>
@@ -2799,7 +2805,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>252</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>253</v>
       </c>
@@ -2833,7 +2839,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>254</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>256</v>
       </c>
@@ -2873,7 +2879,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>257</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>258</v>
       </c>
@@ -2907,18 +2913,18 @@
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>258</v>
       </c>
       <c r="B102" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>69</v>
@@ -2927,21 +2933,21 @@
         <v>69</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>258</v>
       </c>
       <c r="B103" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>98</v>
@@ -2950,10 +2956,10 @@
         <v>98</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>263</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>264</v>
       </c>
@@ -2990,7 +2996,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>266</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>269</v>
       </c>
@@ -3024,7 +3030,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>271</v>
       </c>
@@ -3041,7 +3047,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>273</v>
       </c>
@@ -3058,7 +3064,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>274</v>
       </c>
@@ -3075,7 +3081,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>275</v>
       </c>
@@ -3092,7 +3098,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>277</v>
       </c>
@@ -3109,7 +3115,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>278</v>
       </c>
@@ -3126,7 +3132,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>278</v>
       </c>
@@ -3137,13 +3143,13 @@
         <v>168</v>
       </c>
       <c r="D114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E114" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>280</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>280</v>
       </c>
@@ -3177,7 +3183,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>284</v>
       </c>
@@ -3194,7 +3200,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>284</v>
       </c>
@@ -3211,7 +3217,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>289</v>
       </c>
@@ -3228,10 +3234,10 @@
         <v>98</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>291</v>
       </c>
@@ -3251,7 +3257,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>292</v>
       </c>
@@ -3265,10 +3271,10 @@
         <v>177</v>
       </c>
       <c r="E121" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>293</v>
       </c>
@@ -3285,7 +3291,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>294</v>
       </c>
@@ -3302,10 +3308,10 @@
         <v>69</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>294</v>
       </c>
@@ -3322,10 +3328,10 @@
         <v>203</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>295</v>
       </c>
@@ -3342,7 +3348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>299</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>304</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>312</v>
       </c>
@@ -3393,7 +3399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>314</v>
       </c>
@@ -3410,7 +3416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>315</v>
       </c>
@@ -3427,7 +3433,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>316</v>
       </c>
@@ -3444,7 +3450,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>317</v>
       </c>
@@ -3461,7 +3467,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>318</v>
       </c>
@@ -3478,7 +3484,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>322</v>
       </c>
@@ -3495,7 +3501,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>324</v>
       </c>
@@ -3512,7 +3518,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>326</v>
       </c>
@@ -3529,7 +3535,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>330</v>
       </c>
@@ -3546,7 +3552,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>333</v>
       </c>
@@ -3563,7 +3569,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>336</v>
       </c>
@@ -3580,7 +3586,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>337</v>
       </c>
@@ -3597,7 +3603,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>340</v>
       </c>
@@ -3614,7 +3620,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>342</v>
       </c>
@@ -3631,7 +3637,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>345</v>
       </c>

--- a/BE_nais_einheiten_unique_bh_20241128_bh_mf_bh.xlsx
+++ b/BE_nais_einheiten_unique_bh_20241128_bh_mf_bh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DE47FA-0BBF-4EFF-9AC5-3F7D0E1CCD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238E1CE9-2FE4-4B01-8CFC-E779E986D586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -810,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -820,8 +820,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1127,7 +1128,7 @@
   <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,771 +1168,765 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6">
-        <v>39</v>
-      </c>
-      <c r="D2" s="6">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>218</v>
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>19</v>
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>22</v>
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>24</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>23</v>
+        <v>170</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>47</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>33</v>
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" t="s">
         <v>69</v>
       </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>74</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>37</v>
+        <v>188</v>
+      </c>
+      <c r="C33" t="s">
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" t="s">
-        <v>61</v>
+        <v>13</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>98</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -1939,382 +1934,382 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>115</v>
+        <v>314</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="E49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>198</v>
+      </c>
+      <c r="B51" t="s">
         <v>117</v>
       </c>
-      <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>121</v>
-      </c>
-      <c r="B51" t="s">
-        <v>72</v>
-      </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="E52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D53" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" t="s">
+        <v>83</v>
       </c>
       <c r="E54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="D56" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="E56" t="s">
         <v>69</v>
       </c>
-      <c r="F56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>83</v>
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>84</v>
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>83</v>
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="E61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D63" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="E63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>167</v>
+        <v>317</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="D64" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="E64" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" t="s">
-        <v>93</v>
-      </c>
-      <c r="D65" t="s">
-        <v>93</v>
+        <v>3</v>
+      </c>
+      <c r="C65" s="5">
+        <v>39</v>
+      </c>
+      <c r="D65" s="5">
+        <v>39</v>
       </c>
       <c r="E65" t="s">
-        <v>69</v>
+        <v>4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>215</v>
+      </c>
+      <c r="H65" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>95</v>
-      </c>
-      <c r="D66" t="s">
-        <v>95</v>
-      </c>
-      <c r="E66" t="s">
-        <v>69</v>
+        <v>6</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -2322,138 +2317,135 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D68" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E69" t="s">
-        <v>98</v>
-      </c>
-      <c r="F69" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E70" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="E72" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D73" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C74" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -2461,831 +2453,825 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H76" t="s">
-        <v>219</v>
+        <v>138</v>
+      </c>
+      <c r="E76" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="E77" t="s">
-        <v>211</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
-      </c>
-      <c r="C78" t="s">
-        <v>116</v>
-      </c>
-      <c r="D78" t="s">
-        <v>116</v>
-      </c>
-      <c r="E78" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
-      </c>
-      <c r="C79" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" t="s">
-        <v>82</v>
-      </c>
-      <c r="E79" t="s">
-        <v>10</v>
+        <v>210</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>204</v>
+        <v>263</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="D80" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="C81" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="E81" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="B82" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C82" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="D82" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="E82" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="D83" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="E83" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C84" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D84" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E84" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B85" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C85" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D85" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E85" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="B86" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C86" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D86" t="s">
-        <v>126</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="B87" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C87" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="D87" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="F87" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="B88" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="C88" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="D88" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="E88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="B89" t="s">
-        <v>129</v>
-      </c>
-      <c r="C89" t="s">
-        <v>130</v>
-      </c>
-      <c r="D89" t="s">
-        <v>130</v>
+        <v>169</v>
+      </c>
+      <c r="C89">
+        <v>53</v>
+      </c>
+      <c r="D89">
+        <v>53</v>
       </c>
       <c r="E89" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="B90" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="C90" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="D90" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="B91" t="s">
-        <v>133</v>
-      </c>
-      <c r="C91" t="s">
-        <v>134</v>
-      </c>
-      <c r="D91" t="s">
-        <v>134</v>
+        <v>171</v>
+      </c>
+      <c r="C91">
+        <v>53</v>
+      </c>
+      <c r="D91">
+        <v>53</v>
       </c>
       <c r="E91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="B92" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="C92" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="D92" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="E92" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="B93" t="s">
-        <v>137</v>
-      </c>
-      <c r="C93" t="s">
-        <v>25</v>
-      </c>
-      <c r="D93" t="s">
-        <v>25</v>
+        <v>172</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="E93" t="s">
+        <v>98</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>291</v>
+      </c>
+      <c r="B94" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E94" t="s">
+        <v>98</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>225</v>
+      </c>
+      <c r="B95" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" t="s">
+        <v>128</v>
+      </c>
+      <c r="E95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>230</v>
+      </c>
+      <c r="B96" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" t="s">
+        <v>130</v>
+      </c>
+      <c r="D96" t="s">
+        <v>130</v>
+      </c>
+      <c r="E96" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>271</v>
+      </c>
+      <c r="B97" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" t="s">
+        <v>159</v>
+      </c>
+      <c r="D97" t="s">
+        <v>159</v>
+      </c>
+      <c r="E97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>273</v>
+      </c>
+      <c r="B98" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98" t="s">
+        <v>161</v>
+      </c>
+      <c r="D98" t="s">
+        <v>161</v>
+      </c>
+      <c r="E98" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>274</v>
+      </c>
+      <c r="B99" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99" t="s">
+        <v>163</v>
+      </c>
+      <c r="D99" t="s">
+        <v>163</v>
+      </c>
+      <c r="E99" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>269</v>
+      </c>
+      <c r="B100" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" t="s">
+        <v>130</v>
+      </c>
+      <c r="D100" t="s">
+        <v>130</v>
+      </c>
+      <c r="E100" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>292</v>
+      </c>
+      <c r="B101" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" t="s">
+        <v>177</v>
+      </c>
+      <c r="D101" t="s">
+        <v>177</v>
+      </c>
+      <c r="E101" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>278</v>
+      </c>
+      <c r="B103" t="s">
+        <v>168</v>
+      </c>
+      <c r="C103" t="s">
+        <v>168</v>
+      </c>
+      <c r="D103" t="s">
+        <v>168</v>
+      </c>
+      <c r="E103" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>278</v>
+      </c>
+      <c r="B104" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" t="s">
+        <v>168</v>
+      </c>
+      <c r="D104" t="s">
+        <v>205</v>
+      </c>
+      <c r="E104" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>275</v>
+      </c>
+      <c r="B105" t="s">
+        <v>164</v>
+      </c>
+      <c r="C105" t="s">
+        <v>165</v>
+      </c>
+      <c r="D105" t="s">
+        <v>165</v>
+      </c>
+      <c r="E105" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>277</v>
+      </c>
+      <c r="B106" t="s">
+        <v>166</v>
+      </c>
+      <c r="C106" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" t="s">
+        <v>167</v>
+      </c>
+      <c r="E106" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>295</v>
+      </c>
+      <c r="B107" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107" t="s">
+        <v>181</v>
+      </c>
+      <c r="D107" t="s">
+        <v>181</v>
+      </c>
+      <c r="E107" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>249</v>
-      </c>
-      <c r="B94" t="s">
-        <v>138</v>
-      </c>
-      <c r="C94" t="s">
-        <v>138</v>
-      </c>
-      <c r="D94" t="s">
-        <v>138</v>
-      </c>
-      <c r="E94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>250</v>
-      </c>
-      <c r="B95" t="s">
-        <v>139</v>
-      </c>
-      <c r="C95" t="s">
-        <v>140</v>
-      </c>
-      <c r="D95" t="s">
-        <v>140</v>
-      </c>
-      <c r="E95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>252</v>
-      </c>
-      <c r="B96" t="s">
-        <v>141</v>
-      </c>
-      <c r="C96" t="s">
-        <v>140</v>
-      </c>
-      <c r="D96" t="s">
-        <v>140</v>
-      </c>
-      <c r="E96" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>253</v>
-      </c>
-      <c r="B97" t="s">
-        <v>142</v>
-      </c>
-      <c r="C97" t="s">
-        <v>143</v>
-      </c>
-      <c r="D97" t="s">
-        <v>143</v>
-      </c>
-      <c r="E97" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>254</v>
-      </c>
-      <c r="B98" t="s">
-        <v>144</v>
-      </c>
-      <c r="C98" t="s">
-        <v>145</v>
-      </c>
-      <c r="D98" t="s">
-        <v>145</v>
-      </c>
-      <c r="E98" t="s">
-        <v>98</v>
-      </c>
-      <c r="F98" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>256</v>
-      </c>
-      <c r="B99" t="s">
-        <v>146</v>
-      </c>
-      <c r="C99" t="s">
-        <v>147</v>
-      </c>
-      <c r="D99" t="s">
-        <v>147</v>
-      </c>
-      <c r="E99" t="s">
-        <v>98</v>
-      </c>
-      <c r="F99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>257</v>
-      </c>
-      <c r="B100" t="s">
-        <v>148</v>
-      </c>
-      <c r="C100" t="s">
-        <v>148</v>
-      </c>
-      <c r="D100" t="s">
-        <v>148</v>
-      </c>
-      <c r="E100" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>258</v>
-      </c>
-      <c r="B101" t="s">
-        <v>149</v>
-      </c>
-      <c r="C101" t="s">
-        <v>150</v>
-      </c>
-      <c r="D101" t="s">
-        <v>150</v>
-      </c>
-      <c r="E101" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>258</v>
-      </c>
-      <c r="B102" t="s">
-        <v>209</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E102" s="3" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>299</v>
+      </c>
+      <c r="B108" t="s">
+        <v>182</v>
+      </c>
+      <c r="C108" t="s">
+        <v>182</v>
+      </c>
+      <c r="D108" t="s">
+        <v>182</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>322</v>
+      </c>
+      <c r="B109" t="s">
+        <v>192</v>
+      </c>
+      <c r="C109" t="s">
+        <v>192</v>
+      </c>
+      <c r="D109" t="s">
+        <v>192</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>258</v>
-      </c>
-      <c r="B103" t="s">
-        <v>210</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>263</v>
-      </c>
-      <c r="B104" t="s">
-        <v>151</v>
-      </c>
-      <c r="C104" t="s">
-        <v>152</v>
-      </c>
-      <c r="D104" t="s">
-        <v>152</v>
-      </c>
-      <c r="E104" t="s">
-        <v>107</v>
-      </c>
-      <c r="F104" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>264</v>
-      </c>
-      <c r="B105" t="s">
-        <v>153</v>
-      </c>
-      <c r="C105" t="s">
-        <v>154</v>
-      </c>
-      <c r="D105" t="s">
-        <v>154</v>
-      </c>
-      <c r="E105" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>266</v>
-      </c>
-      <c r="B106" t="s">
-        <v>155</v>
-      </c>
-      <c r="C106" t="s">
-        <v>156</v>
-      </c>
-      <c r="D106" t="s">
-        <v>156</v>
-      </c>
-      <c r="E106" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>269</v>
-      </c>
-      <c r="B107" t="s">
-        <v>157</v>
-      </c>
-      <c r="C107" t="s">
-        <v>130</v>
-      </c>
-      <c r="D107" t="s">
-        <v>130</v>
-      </c>
-      <c r="E107" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>271</v>
-      </c>
-      <c r="B108" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" t="s">
-        <v>159</v>
-      </c>
-      <c r="D108" t="s">
-        <v>159</v>
-      </c>
-      <c r="E108" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>273</v>
-      </c>
-      <c r="B109" t="s">
-        <v>160</v>
-      </c>
-      <c r="C109" t="s">
-        <v>161</v>
-      </c>
-      <c r="D109" t="s">
-        <v>161</v>
-      </c>
-      <c r="E109" t="s">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>336</v>
+      </c>
+      <c r="B110" t="s">
+        <v>197</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>274</v>
-      </c>
-      <c r="B110" t="s">
-        <v>162</v>
-      </c>
-      <c r="C110" t="s">
-        <v>163</v>
-      </c>
-      <c r="D110" t="s">
-        <v>163</v>
-      </c>
-      <c r="E110" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="B111" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C111" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D111" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="E111" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="B112" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C112" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D112" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E112" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="B113" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="C113" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="D113" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="E113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="B114" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="C114" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="D114" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E114" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="B115" t="s">
-        <v>169</v>
-      </c>
-      <c r="C115">
-        <v>53</v>
-      </c>
-      <c r="D115">
-        <v>53</v>
+        <v>194</v>
+      </c>
+      <c r="C115" t="s">
+        <v>194</v>
+      </c>
+      <c r="D115" t="s">
+        <v>194</v>
       </c>
       <c r="E115" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="B116" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C116" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="D116" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="E116" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="B117" t="s">
-        <v>171</v>
-      </c>
-      <c r="C117">
-        <v>53</v>
-      </c>
-      <c r="D117">
-        <v>53</v>
+        <v>200</v>
+      </c>
+      <c r="C117" t="s">
+        <v>200</v>
+      </c>
+      <c r="D117" t="s">
+        <v>200</v>
       </c>
       <c r="E117" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="C118" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="D118" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="E118" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="B119" t="s">
-        <v>172</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>173</v>
+        <v>193</v>
+      </c>
+      <c r="C119" t="s">
+        <v>193</v>
+      </c>
+      <c r="D119" t="s">
+        <v>193</v>
       </c>
       <c r="E119" t="s">
-        <v>98</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B120" t="s">
-        <v>174</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>175</v>
+        <v>199</v>
+      </c>
+      <c r="C120" t="s">
+        <v>199</v>
+      </c>
+      <c r="D120" t="s">
+        <v>199</v>
       </c>
       <c r="E120" t="s">
-        <v>98</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="B121" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="C121" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="D121" t="s">
-        <v>177</v>
-      </c>
-      <c r="E121" t="s">
-        <v>213</v>
+        <v>126</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="B122" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="C122" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="D122" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="E122" t="s">
         <v>203</v>
@@ -3293,369 +3279,387 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>294</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>221</v>
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>294</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>221</v>
+        <v>17</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>295</v>
-      </c>
-      <c r="B125" t="s">
-        <v>181</v>
-      </c>
-      <c r="C125" t="s">
-        <v>181</v>
-      </c>
-      <c r="D125" t="s">
-        <v>181</v>
+        <v>23</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="F125" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>299</v>
-      </c>
-      <c r="B126" t="s">
-        <v>182</v>
-      </c>
-      <c r="C126" t="s">
-        <v>182</v>
-      </c>
-      <c r="D126" t="s">
-        <v>182</v>
+        <v>24</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="F126" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>304</v>
-      </c>
-      <c r="B127" t="s">
-        <v>183</v>
-      </c>
-      <c r="C127" t="s">
-        <v>183</v>
-      </c>
-      <c r="D127" t="s">
-        <v>183</v>
+        <v>19</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E127" t="s">
-        <v>61</v>
+        <v>4</v>
+      </c>
+      <c r="H127" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="B128" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="C128" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="D128" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>314</v>
+        <v>52</v>
       </c>
       <c r="B129" t="s">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="C129" t="s">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="D129" t="s">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>315</v>
+        <v>32</v>
       </c>
       <c r="B130" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="C130" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="D130" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="E130" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>316</v>
+        <v>37</v>
       </c>
       <c r="B131" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="C131" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="D131" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="E131" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>317</v>
+        <v>40</v>
       </c>
       <c r="B132" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="C132" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="D132" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="E132" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>318</v>
+        <v>111</v>
       </c>
       <c r="B133" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="C133" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="D133" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="E133" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F133" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>322</v>
-      </c>
-      <c r="B134" t="s">
-        <v>192</v>
-      </c>
-      <c r="C134" t="s">
-        <v>192</v>
-      </c>
-      <c r="D134" t="s">
-        <v>192</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E134" t="s">
+        <v>27</v>
+      </c>
+      <c r="F134" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>324</v>
-      </c>
-      <c r="B135" t="s">
-        <v>193</v>
-      </c>
-      <c r="C135" t="s">
-        <v>193</v>
-      </c>
-      <c r="D135" t="s">
-        <v>193</v>
+        <v>47</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E135" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>326</v>
+        <v>49</v>
       </c>
       <c r="B136" t="s">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="C136" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="D136" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="E136" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>330</v>
+        <v>54</v>
       </c>
       <c r="B137" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="E137" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
+        <v>74</v>
+      </c>
+      <c r="B138" t="s">
+        <v>44</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D138" t="s">
+        <v>37</v>
+      </c>
+      <c r="E138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>56</v>
+      </c>
+      <c r="B139" t="s">
+        <v>38</v>
+      </c>
+      <c r="C139" t="s">
+        <v>37</v>
+      </c>
+      <c r="D139" t="s">
+        <v>37</v>
+      </c>
+      <c r="E139" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>57</v>
+      </c>
+      <c r="B140" t="s">
+        <v>39</v>
+      </c>
+      <c r="C140" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" t="s">
+        <v>39</v>
+      </c>
+      <c r="E140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>333</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B141" t="s">
         <v>196</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C141" t="s">
         <v>196</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D141" t="s">
         <v>196</v>
-      </c>
-      <c r="E138" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>336</v>
-      </c>
-      <c r="B139" t="s">
-        <v>197</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>337</v>
-      </c>
-      <c r="B140" t="s">
-        <v>198</v>
-      </c>
-      <c r="C140" t="s">
-        <v>198</v>
-      </c>
-      <c r="D140" t="s">
-        <v>198</v>
-      </c>
-      <c r="E140" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>340</v>
-      </c>
-      <c r="B141" t="s">
-        <v>199</v>
-      </c>
-      <c r="C141" t="s">
-        <v>199</v>
-      </c>
-      <c r="D141" t="s">
-        <v>199</v>
       </c>
       <c r="E141" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>342</v>
-      </c>
-      <c r="B142" t="s">
-        <v>200</v>
-      </c>
-      <c r="C142" t="s">
-        <v>200</v>
-      </c>
-      <c r="D142" t="s">
-        <v>200</v>
-      </c>
-      <c r="E142" t="s">
+        <v>294</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>294</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E143" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>345</v>
-      </c>
-      <c r="B143" t="s">
-        <v>201</v>
-      </c>
-      <c r="C143" t="s">
-        <v>201</v>
-      </c>
-      <c r="D143" t="s">
-        <v>201</v>
-      </c>
-      <c r="E143" t="s">
-        <v>203</v>
+      <c r="H143" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H143">
+    <sortCondition ref="B1:B143"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BE_nais_einheiten_unique_bh_20241128_bh_mf_bh.xlsx
+++ b/BE_nais_einheiten_unique_bh_20241128_bh_mf_bh.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238E1CE9-2FE4-4B01-8CFC-E779E986D586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FD2D5E-8252-4DB4-B89E-F9F162F7E71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BE!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BE!$A$1:$H$143</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -821,7 +821,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3656,7 +3656,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H143" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H143">
     <sortCondition ref="B1:B143"/>
   </sortState>
